--- a/src/project1_semi_finance/data/dongboo/IT_TOTAL_주가.xlsx
+++ b/src/project1_semi_finance/data/dongboo/IT_TOTAL_주가.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="570" windowWidth="18015" windowHeight="11025"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="18015" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:J1040"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
